--- a/processed_files/PAYROLL OUTPUT - 2023-08-01 - 2023-08-15.xlsx
+++ b/processed_files/PAYROLL OUTPUT - 2023-08-01 - 2023-08-15.xlsx
@@ -132,6 +132,12 @@
     <t>CCR-Not-Worked</t>
   </si>
   <si>
+    <t>Miriam Hernandez</t>
+  </si>
+  <si>
+    <t>OA2</t>
+  </si>
+  <si>
     <t>Elli Hernandez</t>
   </si>
   <si>
@@ -144,12 +150,6 @@
     <t>Vacation Payout</t>
   </si>
   <si>
-    <t>Miriam Hernandez</t>
-  </si>
-  <si>
-    <t>OA2</t>
-  </si>
-  <si>
     <t>Krystal Huck</t>
   </si>
   <si>
@@ -279,6 +279,12 @@
     <t>BELL GUTIERREZ</t>
   </si>
   <si>
+    <t>MIRIAM HERNANDEZ</t>
+  </si>
+  <si>
+    <t>PREPAID OA2</t>
+  </si>
+  <si>
     <t>ELLI HERNANDEZ</t>
   </si>
   <si>
@@ -286,12 +292,6 @@
   </si>
   <si>
     <t>PREPAID IHSS-Asleep</t>
-  </si>
-  <si>
-    <t>MIRIAM HERNANDEZ</t>
-  </si>
-  <si>
-    <t>PREPAID OA2</t>
   </si>
   <si>
     <t>KRYSTAL HUCK</t>
@@ -2887,16 +2887,16 @@
         <v>8</v>
       </c>
       <c r="C108">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D108">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="E108">
-        <v>25.6</v>
+        <v>27.25</v>
       </c>
       <c r="F108">
-        <v>26.11</v>
+        <v>29.43</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2904,259 +2904,259 @@
         <v>38</v>
       </c>
       <c r="B109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109">
+        <v>3329</v>
+      </c>
+      <c r="D109">
+        <v>55.48</v>
+      </c>
+      <c r="E109">
+        <v>27.25</v>
+      </c>
+      <c r="F109">
+        <v>1511.83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>1541.26</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>1079.01</v>
+      </c>
+      <c r="B113">
+        <v>56.57</v>
+      </c>
+      <c r="C113" s="2">
+        <v>44911</v>
+      </c>
+      <c r="D113">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>43.16</v>
+      </c>
+      <c r="B115">
+        <v>10.4</v>
+      </c>
+      <c r="C115">
+        <v>2.26</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>32.76</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>24</v>
+      </c>
+      <c r="B117">
+        <v>24</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>40</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>61</v>
+      </c>
+      <c r="D123">
+        <v>1.02</v>
+      </c>
+      <c r="E123">
+        <v>25.6</v>
+      </c>
+      <c r="F123">
+        <v>26.11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>40</v>
+      </c>
+      <c r="B124" t="s">
         <v>37</v>
       </c>
-      <c r="C109">
+      <c r="C124">
         <v>960</v>
       </c>
-      <c r="D109">
+      <c r="D124">
         <v>16</v>
       </c>
-      <c r="E109">
+      <c r="E124">
         <v>31.5</v>
       </c>
-      <c r="F109">
+      <c r="F124">
         <v>504</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" t="s">
-        <v>38</v>
-      </c>
-      <c r="B110" t="s">
-        <v>39</v>
-      </c>
-      <c r="C110">
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>40</v>
+      </c>
+      <c r="B125" t="s">
+        <v>41</v>
+      </c>
+      <c r="C125">
         <v>2134</v>
       </c>
-      <c r="D110">
+      <c r="D125">
         <v>35.57</v>
       </c>
-      <c r="E110">
+      <c r="E125">
         <v>26.25</v>
       </c>
-      <c r="F110">
+      <c r="F125">
         <v>933.71</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" t="s">
-        <v>38</v>
-      </c>
-      <c r="B111" t="s">
-        <v>40</v>
-      </c>
-      <c r="C111">
-        <v>476</v>
-      </c>
-      <c r="D111">
-        <v>7.93</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" t="s">
-        <v>38</v>
-      </c>
-      <c r="B112" t="s">
-        <v>41</v>
-      </c>
-      <c r="C112">
-        <v>960</v>
-      </c>
-      <c r="D112">
-        <v>16</v>
-      </c>
-      <c r="E112">
-        <v>25.6</v>
-      </c>
-      <c r="F112">
-        <v>409.6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>1873.42</v>
-      </c>
-      <c r="B114" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>1210.28</v>
-      </c>
-      <c r="B116">
-        <v>44.52</v>
-      </c>
-      <c r="C116" s="2">
-        <v>44911</v>
-      </c>
-      <c r="D116">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>48.4</v>
-      </c>
-      <c r="B118">
-        <v>16</v>
-      </c>
-      <c r="C118">
-        <v>1.78</v>
-      </c>
-      <c r="D118">
-        <v>16</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>32.4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>24</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" t="s">
         <v>42</v>
       </c>
-      <c r="B126" t="s">
-        <v>8</v>
-      </c>
       <c r="C126">
-        <v>65</v>
+        <v>476</v>
       </c>
       <c r="D126">
-        <v>1.08</v>
+        <v>7.93</v>
       </c>
       <c r="E126">
-        <v>27.25</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>29.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B127" t="s">
         <v>43</v>
       </c>
       <c r="C127">
-        <v>3329</v>
+        <v>960</v>
       </c>
       <c r="D127">
-        <v>55.48</v>
+        <v>16</v>
       </c>
       <c r="E127">
-        <v>27.25</v>
+        <v>25.6</v>
       </c>
       <c r="F127">
-        <v>1511.83</v>
+        <v>409.6</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3169,7 +3169,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>1541.26</v>
+        <v>1873.42</v>
       </c>
       <c r="B129" t="s">
         <v>14</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>1079.01</v>
+        <v>1210.28</v>
       </c>
       <c r="B131">
-        <v>56.57</v>
+        <v>44.52</v>
       </c>
       <c r="C131" s="2">
         <v>44911</v>
@@ -3225,22 +3225,22 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>43.16</v>
+        <v>48.4</v>
       </c>
       <c r="B133">
-        <v>10.4</v>
+        <v>16</v>
       </c>
       <c r="C133">
-        <v>2.26</v>
+        <v>1.78</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133">
-        <v>32.76</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3262,13 +3262,13 @@
         <v>24</v>
       </c>
       <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
         <v>24</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3724,7 +3724,7 @@
         <v>48</v>
       </c>
       <c r="B174" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C174">
         <v>4800</v>
@@ -4150,7 +4150,7 @@
         <v>55</v>
       </c>
       <c r="B207" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C207">
         <v>1918.8</v>
@@ -4350,7 +4350,7 @@
         <v>58</v>
       </c>
       <c r="B223" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C223">
         <v>494</v>
@@ -4770,7 +4770,7 @@
         <v>61</v>
       </c>
       <c r="B256" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C256">
         <v>3787</v>
@@ -5336,7 +5336,7 @@
         <v>64</v>
       </c>
       <c r="B302" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C302">
         <v>483</v>
@@ -5536,7 +5536,7 @@
         <v>65</v>
       </c>
       <c r="B318" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C318">
         <v>1074</v>
@@ -5556,7 +5556,7 @@
         <v>65</v>
       </c>
       <c r="B319" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C319">
         <v>480</v>
@@ -5576,7 +5576,7 @@
         <v>65</v>
       </c>
       <c r="B320" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C320">
         <v>4087</v>
@@ -8177,22 +8177,22 @@
         <v>8</v>
       </c>
       <c r="C179">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="D179">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="E179">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="F179">
-        <v>25.6</v>
+        <v>27.25</v>
       </c>
       <c r="G179">
-        <v>26.112</v>
+        <v>29.43</v>
       </c>
       <c r="H179">
-        <v>26.112</v>
+        <v>29.43</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -8200,25 +8200,25 @@
         <v>38</v>
       </c>
       <c r="B180" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>24.12</v>
       </c>
       <c r="D180">
-        <v>8</v>
+        <v>24.12</v>
       </c>
       <c r="E180">
-        <v>8</v>
+        <v>24.12</v>
       </c>
       <c r="F180">
-        <v>31.5</v>
+        <v>27.25</v>
       </c>
       <c r="G180">
-        <v>252</v>
+        <v>657.27</v>
       </c>
       <c r="H180">
-        <v>252</v>
+        <v>657.27</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -8226,717 +8226,717 @@
         <v>38</v>
       </c>
       <c r="B181" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C181">
-        <v>17.23</v>
+        <v>8.1</v>
       </c>
       <c r="D181">
-        <v>17.23</v>
+        <v>8.1</v>
       </c>
       <c r="E181">
-        <v>17.23</v>
+        <v>8.1</v>
       </c>
       <c r="F181">
-        <v>26.25</v>
+        <v>27.25</v>
       </c>
       <c r="G181">
-        <v>452.2875</v>
+        <v>220.725</v>
       </c>
       <c r="H181">
-        <v>452.2875</v>
+        <v>220.725</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
+        <v>74</v>
+      </c>
+      <c r="B182" t="s">
+        <v>75</v>
+      </c>
+      <c r="C182">
+        <v>33.3</v>
+      </c>
+      <c r="D182">
+        <v>33.3</v>
+      </c>
+      <c r="E182">
+        <v>33.3</v>
+      </c>
+      <c r="F182">
+        <v>81.75</v>
+      </c>
+      <c r="G182">
+        <v>907.42</v>
+      </c>
+      <c r="H182">
+        <v>907.42</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185">
+        <v>686.7</v>
+      </c>
+      <c r="B185">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B182" t="s">
-        <v>88</v>
-      </c>
-      <c r="C182">
-        <v>8</v>
-      </c>
-      <c r="D182">
-        <v>8</v>
-      </c>
-      <c r="E182">
-        <v>8</v>
-      </c>
-      <c r="F182">
-        <v>26.25</v>
-      </c>
-      <c r="G182">
-        <v>210</v>
-      </c>
-      <c r="H182">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" t="s">
+      <c r="B188" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
         <v>38</v>
       </c>
-      <c r="B183" t="s">
-        <v>89</v>
-      </c>
-      <c r="C183">
-        <v>7.02</v>
-      </c>
-      <c r="D183">
-        <v>7.02</v>
-      </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
-        <v>17.75</v>
-      </c>
-      <c r="G183">
-        <v>124.605</v>
-      </c>
-      <c r="H183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" t="s">
+      <c r="B190" t="s">
+        <v>39</v>
+      </c>
+      <c r="C190">
+        <v>24.07</v>
+      </c>
+      <c r="D190">
+        <v>24.07</v>
+      </c>
+      <c r="E190">
+        <v>24.07</v>
+      </c>
+      <c r="F190">
+        <v>27.25</v>
+      </c>
+      <c r="G190">
+        <v>655.9075</v>
+      </c>
+      <c r="H190">
+        <v>655.9075</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
         <v>74</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B191" t="s">
         <v>75</v>
       </c>
-      <c r="C184">
-        <v>33.27</v>
-      </c>
-      <c r="D184">
-        <v>41.27</v>
-      </c>
-      <c r="E184">
-        <v>34.25</v>
-      </c>
-      <c r="F184">
-        <v>127.35</v>
-      </c>
-      <c r="G184">
-        <v>1065</v>
-      </c>
-      <c r="H184">
-        <v>940.4000000000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="1" t="s">
+      <c r="C191">
+        <v>24.07</v>
+      </c>
+      <c r="D191">
+        <v>24.07</v>
+      </c>
+      <c r="E191">
+        <v>24.07</v>
+      </c>
+      <c r="F191">
+        <v>27.25</v>
+      </c>
+      <c r="G191">
+        <v>655.91</v>
+      </c>
+      <c r="H191">
+        <v>655.91</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
-      <c r="A187">
-        <v>730.4</v>
-      </c>
-      <c r="B187">
-        <v>25.81</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="A190" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="A191" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="A192" t="s">
-        <v>38</v>
-      </c>
-      <c r="B192" t="s">
-        <v>37</v>
-      </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-      <c r="D192">
-        <v>8</v>
-      </c>
-      <c r="E192">
-        <v>8</v>
-      </c>
-      <c r="F192">
-        <v>31.5</v>
-      </c>
-      <c r="G192">
-        <v>252</v>
-      </c>
-      <c r="H192">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" t="s">
-        <v>38</v>
-      </c>
-      <c r="B193" t="s">
-        <v>39</v>
-      </c>
-      <c r="C193">
-        <v>2.13</v>
-      </c>
-      <c r="D193">
-        <v>2.13</v>
-      </c>
-      <c r="E193">
-        <v>2.13</v>
-      </c>
-      <c r="F193">
-        <v>26.25</v>
-      </c>
-      <c r="G193">
-        <v>55.91249999999999</v>
-      </c>
-      <c r="H193">
-        <v>55.91249999999999</v>
-      </c>
-    </row>
     <row r="194" spans="1:8">
-      <c r="A194" t="s">
-        <v>38</v>
-      </c>
-      <c r="B194" t="s">
-        <v>40</v>
-      </c>
-      <c r="C194">
-        <v>0.93</v>
-      </c>
-      <c r="D194">
-        <v>0.93</v>
-      </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-      <c r="F194">
-        <v>17.75</v>
-      </c>
-      <c r="G194">
-        <v>16.5075</v>
-      </c>
-      <c r="H194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="A195" t="s">
-        <v>74</v>
-      </c>
-      <c r="B195" t="s">
-        <v>75</v>
-      </c>
-      <c r="C195">
-        <v>3.06</v>
-      </c>
-      <c r="D195">
-        <v>11.06</v>
-      </c>
-      <c r="E195">
-        <v>10.13</v>
-      </c>
-      <c r="F195">
-        <v>75.5</v>
-      </c>
-      <c r="G195">
-        <v>324.42</v>
-      </c>
-      <c r="H195">
-        <v>307.91</v>
+      <c r="A194">
+        <v>655.91</v>
+      </c>
+      <c r="B194">
+        <v>27.25</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198">
-        <v>307.91</v>
-      </c>
-      <c r="B198">
-        <v>29.33</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="A201" s="1" t="s">
+      <c r="A198" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" t="s">
         <v>38</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>82</v>
+      <c r="B199" t="s">
+        <v>39</v>
+      </c>
+      <c r="C199">
+        <v>7.3</v>
+      </c>
+      <c r="D199">
+        <v>7.3</v>
+      </c>
+      <c r="E199">
+        <v>7.3</v>
+      </c>
+      <c r="F199">
+        <v>27.25</v>
+      </c>
+      <c r="G199">
+        <v>198.925</v>
+      </c>
+      <c r="H199">
+        <v>198.925</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>74</v>
+      </c>
+      <c r="B200" t="s">
+        <v>75</v>
+      </c>
+      <c r="C200">
+        <v>7.3</v>
+      </c>
+      <c r="D200">
+        <v>7.3</v>
+      </c>
+      <c r="E200">
+        <v>7.3</v>
+      </c>
+      <c r="F200">
+        <v>27.25</v>
+      </c>
+      <c r="G200">
+        <v>198.92</v>
+      </c>
+      <c r="H200">
+        <v>198.92</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203">
+        <v>198.92</v>
+      </c>
+      <c r="B203">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C210" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E202" s="1" t="s">
+      <c r="E210" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F202" s="1" t="s">
+      <c r="F210" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="G210" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H202" s="1" t="s">
+      <c r="H210" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
-      <c r="A203" t="s">
-        <v>38</v>
-      </c>
-      <c r="B203" t="s">
-        <v>39</v>
-      </c>
-      <c r="C203">
-        <v>16.2</v>
-      </c>
-      <c r="D203">
-        <v>16.2</v>
-      </c>
-      <c r="E203">
-        <v>16.2</v>
-      </c>
-      <c r="F203">
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
+        <v>40</v>
+      </c>
+      <c r="B211" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211">
+        <v>1.02</v>
+      </c>
+      <c r="D211">
+        <v>1.02</v>
+      </c>
+      <c r="E211">
+        <v>1.02</v>
+      </c>
+      <c r="F211">
+        <v>25.6</v>
+      </c>
+      <c r="G211">
+        <v>26.112</v>
+      </c>
+      <c r="H211">
+        <v>26.112</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" t="s">
+        <v>40</v>
+      </c>
+      <c r="B212" t="s">
+        <v>37</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>8</v>
+      </c>
+      <c r="E212">
+        <v>8</v>
+      </c>
+      <c r="F212">
+        <v>31.5</v>
+      </c>
+      <c r="G212">
+        <v>252</v>
+      </c>
+      <c r="H212">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>40</v>
+      </c>
+      <c r="B213" t="s">
+        <v>41</v>
+      </c>
+      <c r="C213">
+        <v>17.23</v>
+      </c>
+      <c r="D213">
+        <v>17.23</v>
+      </c>
+      <c r="E213">
+        <v>17.23</v>
+      </c>
+      <c r="F213">
         <v>26.25</v>
       </c>
-      <c r="G203">
-        <v>425.25</v>
-      </c>
-      <c r="H203">
-        <v>425.25</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="A204" t="s">
-        <v>38</v>
-      </c>
-      <c r="B204" t="s">
+      <c r="G213">
+        <v>452.2875</v>
+      </c>
+      <c r="H213">
+        <v>452.2875</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" t="s">
         <v>40</v>
       </c>
-      <c r="C204">
-        <v>7</v>
-      </c>
-      <c r="D204">
-        <v>7</v>
-      </c>
-      <c r="E204">
-        <v>0</v>
-      </c>
-      <c r="F204">
+      <c r="B214" t="s">
+        <v>90</v>
+      </c>
+      <c r="C214">
+        <v>8</v>
+      </c>
+      <c r="D214">
+        <v>8</v>
+      </c>
+      <c r="E214">
+        <v>8</v>
+      </c>
+      <c r="F214">
+        <v>26.25</v>
+      </c>
+      <c r="G214">
+        <v>210</v>
+      </c>
+      <c r="H214">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" t="s">
+        <v>40</v>
+      </c>
+      <c r="B215" t="s">
+        <v>91</v>
+      </c>
+      <c r="C215">
+        <v>7.02</v>
+      </c>
+      <c r="D215">
+        <v>7.02</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
         <v>17.75</v>
       </c>
-      <c r="G204">
-        <v>124.25</v>
-      </c>
-      <c r="H204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" t="s">
-        <v>74</v>
-      </c>
-      <c r="B205" t="s">
-        <v>75</v>
-      </c>
-      <c r="C205">
-        <v>23.2</v>
-      </c>
-      <c r="D205">
-        <v>23.2</v>
-      </c>
-      <c r="E205">
-        <v>16.2</v>
-      </c>
-      <c r="F205">
-        <v>44</v>
-      </c>
-      <c r="G205">
-        <v>549.5</v>
-      </c>
-      <c r="H205">
-        <v>425.25</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="A207" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208">
-        <v>425.25</v>
-      </c>
-      <c r="B208">
-        <v>23.69</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H215" s="1" t="s">
-        <v>73</v>
+      <c r="G215">
+        <v>124.605</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
+        <v>74</v>
+      </c>
+      <c r="B216" t="s">
+        <v>75</v>
+      </c>
+      <c r="C216">
+        <v>33.27</v>
+      </c>
+      <c r="D216">
+        <v>41.27</v>
+      </c>
+      <c r="E216">
+        <v>34.25</v>
+      </c>
+      <c r="F216">
+        <v>127.35</v>
+      </c>
+      <c r="G216">
+        <v>1065</v>
+      </c>
+      <c r="H216">
+        <v>940.4000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219">
+        <v>730.4</v>
+      </c>
+      <c r="B219">
+        <v>25.81</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" t="s">
+        <v>40</v>
+      </c>
+      <c r="B224" t="s">
+        <v>37</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>8</v>
+      </c>
+      <c r="E224">
+        <v>8</v>
+      </c>
+      <c r="F224">
+        <v>31.5</v>
+      </c>
+      <c r="G224">
+        <v>252</v>
+      </c>
+      <c r="H224">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" t="s">
+        <v>40</v>
+      </c>
+      <c r="B225" t="s">
+        <v>41</v>
+      </c>
+      <c r="C225">
+        <v>2.13</v>
+      </c>
+      <c r="D225">
+        <v>2.13</v>
+      </c>
+      <c r="E225">
+        <v>2.13</v>
+      </c>
+      <c r="F225">
+        <v>26.25</v>
+      </c>
+      <c r="G225">
+        <v>55.91249999999999</v>
+      </c>
+      <c r="H225">
+        <v>55.91249999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" t="s">
+        <v>40</v>
+      </c>
+      <c r="B226" t="s">
         <v>42</v>
       </c>
-      <c r="B216" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216">
-        <v>1.08</v>
-      </c>
-      <c r="D216">
-        <v>1.08</v>
-      </c>
-      <c r="E216">
-        <v>1.08</v>
-      </c>
-      <c r="F216">
-        <v>27.25</v>
-      </c>
-      <c r="G216">
-        <v>29.43</v>
-      </c>
-      <c r="H216">
-        <v>29.43</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217" t="s">
-        <v>42</v>
-      </c>
-      <c r="B217" t="s">
-        <v>43</v>
-      </c>
-      <c r="C217">
-        <v>24.12</v>
-      </c>
-      <c r="D217">
-        <v>24.12</v>
-      </c>
-      <c r="E217">
-        <v>24.12</v>
-      </c>
-      <c r="F217">
-        <v>27.25</v>
-      </c>
-      <c r="G217">
-        <v>657.27</v>
-      </c>
-      <c r="H217">
-        <v>657.27</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="A218" t="s">
-        <v>42</v>
-      </c>
-      <c r="B218" t="s">
-        <v>91</v>
-      </c>
-      <c r="C218">
-        <v>8.1</v>
-      </c>
-      <c r="D218">
-        <v>8.1</v>
-      </c>
-      <c r="E218">
-        <v>8.1</v>
-      </c>
-      <c r="F218">
-        <v>27.25</v>
-      </c>
-      <c r="G218">
-        <v>220.725</v>
-      </c>
-      <c r="H218">
-        <v>220.725</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="A219" t="s">
-        <v>74</v>
-      </c>
-      <c r="B219" t="s">
-        <v>75</v>
-      </c>
-      <c r="C219">
-        <v>33.3</v>
-      </c>
-      <c r="D219">
-        <v>33.3</v>
-      </c>
-      <c r="E219">
-        <v>33.3</v>
-      </c>
-      <c r="F219">
-        <v>81.75</v>
-      </c>
-      <c r="G219">
-        <v>907.42</v>
-      </c>
-      <c r="H219">
-        <v>907.42</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="A222">
-        <v>686.7</v>
-      </c>
-      <c r="B222">
-        <v>27.25</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="A226" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G226" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H226" s="1" t="s">
-        <v>73</v>
+      <c r="C226">
+        <v>0.93</v>
+      </c>
+      <c r="D226">
+        <v>0.93</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>17.75</v>
+      </c>
+      <c r="G226">
+        <v>16.5075</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B227" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C227">
-        <v>24.07</v>
+        <v>3.06</v>
       </c>
       <c r="D227">
-        <v>24.07</v>
+        <v>11.06</v>
       </c>
       <c r="E227">
-        <v>24.07</v>
+        <v>10.13</v>
       </c>
       <c r="F227">
-        <v>27.25</v>
+        <v>75.5</v>
       </c>
       <c r="G227">
-        <v>655.9075</v>
+        <v>324.42</v>
       </c>
       <c r="H227">
-        <v>655.9075</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" t="s">
-        <v>74</v>
-      </c>
-      <c r="B228" t="s">
-        <v>75</v>
-      </c>
-      <c r="C228">
-        <v>24.07</v>
-      </c>
-      <c r="D228">
-        <v>24.07</v>
-      </c>
-      <c r="E228">
-        <v>24.07</v>
-      </c>
-      <c r="F228">
-        <v>27.25</v>
-      </c>
-      <c r="G228">
-        <v>655.91</v>
-      </c>
-      <c r="H228">
-        <v>655.91</v>
+        <v>307.91</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="230" spans="1:8">
-      <c r="A230" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="A231">
-        <v>655.91</v>
-      </c>
-      <c r="B231">
-        <v>27.25</v>
+      <c r="A230">
+        <v>307.91</v>
+      </c>
+      <c r="B230">
+        <v>29.33</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="1" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>82</v>
+        <v>3</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H235" s="1" t="s">
-        <v>73</v>
+      <c r="A235" t="s">
+        <v>40</v>
+      </c>
+      <c r="B235" t="s">
+        <v>41</v>
+      </c>
+      <c r="C235">
+        <v>16.2</v>
+      </c>
+      <c r="D235">
+        <v>16.2</v>
+      </c>
+      <c r="E235">
+        <v>16.2</v>
+      </c>
+      <c r="F235">
+        <v>26.25</v>
+      </c>
+      <c r="G235">
+        <v>425.25</v>
+      </c>
+      <c r="H235">
+        <v>425.25</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
+        <v>40</v>
+      </c>
+      <c r="B236" t="s">
         <v>42</v>
       </c>
-      <c r="B236" t="s">
-        <v>43</v>
-      </c>
       <c r="C236">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="D236">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="E236">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>27.25</v>
+        <v>17.75</v>
       </c>
       <c r="G236">
-        <v>198.925</v>
+        <v>124.25</v>
       </c>
       <c r="H236">
-        <v>198.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8947,22 +8947,22 @@
         <v>75</v>
       </c>
       <c r="C237">
-        <v>7.3</v>
+        <v>23.2</v>
       </c>
       <c r="D237">
-        <v>7.3</v>
+        <v>23.2</v>
       </c>
       <c r="E237">
-        <v>7.3</v>
+        <v>16.2</v>
       </c>
       <c r="F237">
-        <v>27.25</v>
+        <v>44</v>
       </c>
       <c r="G237">
-        <v>198.92</v>
+        <v>549.5</v>
       </c>
       <c r="H237">
-        <v>198.92</v>
+        <v>425.25</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8975,10 +8975,10 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240">
-        <v>198.92</v>
+        <v>425.25</v>
       </c>
       <c r="B240">
-        <v>27.25</v>
+        <v>23.69</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -10538,7 +10538,7 @@
         <v>58</v>
       </c>
       <c r="B383" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C383">
         <v>8.23</v>
@@ -11256,7 +11256,7 @@
         <v>61</v>
       </c>
       <c r="B442" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C442">
         <v>31.22</v>
@@ -11334,7 +11334,7 @@
         <v>61</v>
       </c>
       <c r="B445" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C445">
         <v>0.98</v>
@@ -11462,7 +11462,7 @@
         <v>61</v>
       </c>
       <c r="B455" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C455">
         <v>31.9</v>
@@ -11840,7 +11840,7 @@
         <v>64</v>
       </c>
       <c r="B494" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C494">
         <v>8.050000000000001</v>
@@ -12096,7 +12096,7 @@
         <v>65</v>
       </c>
       <c r="B517" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C517">
         <v>1</v>
@@ -12122,7 +12122,7 @@
         <v>65</v>
       </c>
       <c r="B518" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C518">
         <v>25.48</v>
@@ -12224,7 +12224,7 @@
         <v>65</v>
       </c>
       <c r="B527" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C527">
         <v>13.92</v>
@@ -12250,7 +12250,7 @@
         <v>65</v>
       </c>
       <c r="B528" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C528">
         <v>7</v>
@@ -12276,7 +12276,7 @@
         <v>65</v>
       </c>
       <c r="B529" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C529">
         <v>33.47</v>
@@ -12404,7 +12404,7 @@
         <v>65</v>
       </c>
       <c r="B539" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C539">
         <v>3.98</v>
@@ -12430,7 +12430,7 @@
         <v>65</v>
       </c>
       <c r="B540" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C540">
         <v>9.17</v>
@@ -17067,7 +17067,7 @@
     </row>
     <row r="67" spans="1:20">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B67" t="s">
         <v>133</v>
@@ -17076,10 +17076,10 @@
         <v>155</v>
       </c>
       <c r="D67" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
         <v>185</v>
@@ -17129,7 +17129,7 @@
     </row>
     <row r="68" spans="1:20">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
         <v>134</v>
@@ -17138,10 +17138,10 @@
         <v>155</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
         <v>185</v>
@@ -17188,7 +17188,7 @@
     </row>
     <row r="69" spans="1:20">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B69" t="s">
         <v>133</v>
@@ -17197,10 +17197,10 @@
         <v>155</v>
       </c>
       <c r="D69" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
         <v>185</v>
@@ -17247,7 +17247,7 @@
     </row>
     <row r="70" spans="1:20">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
         <v>133</v>
@@ -17256,10 +17256,10 @@
         <v>155</v>
       </c>
       <c r="D70" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F70" t="s">
         <v>179</v>
@@ -17306,7 +17306,7 @@
     </row>
     <row r="71" spans="1:20">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
         <v>133</v>
@@ -17315,10 +17315,10 @@
         <v>155</v>
       </c>
       <c r="D71" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F71" t="s">
         <v>179</v>
@@ -17365,7 +17365,7 @@
     </row>
     <row r="72" spans="1:20">
       <c r="A72" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
         <v>133</v>
@@ -17374,10 +17374,10 @@
         <v>155</v>
       </c>
       <c r="D72" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
         <v>180</v>
@@ -17424,7 +17424,7 @@
     </row>
     <row r="73" spans="1:20">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B73" t="s">
         <v>134</v>
@@ -17433,10 +17433,10 @@
         <v>155</v>
       </c>
       <c r="D73" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F73" t="s">
         <v>180</v>
@@ -17483,7 +17483,7 @@
     </row>
     <row r="74" spans="1:20">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
         <v>134</v>
@@ -17542,7 +17542,7 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
         <v>133</v>
@@ -17601,7 +17601,7 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
         <v>134</v>
@@ -17660,7 +17660,7 @@
     </row>
     <row r="77" spans="1:20">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B77" t="s">
         <v>133</v>
@@ -17669,10 +17669,10 @@
         <v>155</v>
       </c>
       <c r="D77" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F77" t="s">
         <v>182</v>
@@ -17719,7 +17719,7 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B78" t="s">
         <v>133</v>
@@ -17728,10 +17728,10 @@
         <v>155</v>
       </c>
       <c r="D78" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F78" t="s">
         <v>183</v>
@@ -17778,7 +17778,7 @@
     </row>
     <row r="79" spans="1:20">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B79" t="s">
         <v>133</v>
@@ -17787,10 +17787,10 @@
         <v>155</v>
       </c>
       <c r="D79" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
         <v>183</v>
@@ -17837,7 +17837,7 @@
     </row>
     <row r="80" spans="1:20">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B80" t="s">
         <v>133</v>
@@ -17846,10 +17846,10 @@
         <v>155</v>
       </c>
       <c r="D80" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
         <v>185</v>
@@ -17896,7 +17896,7 @@
     </row>
     <row r="81" spans="1:20">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B81" t="s">
         <v>134</v>
@@ -17937,7 +17937,7 @@
     </row>
     <row r="82" spans="1:20">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B82" t="s">
         <v>133</v>
@@ -17946,10 +17946,10 @@
         <v>155</v>
       </c>
       <c r="D82" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
         <v>185</v>
@@ -17996,7 +17996,7 @@
     </row>
     <row r="83" spans="1:20">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
         <v>133</v>
@@ -18005,10 +18005,10 @@
         <v>155</v>
       </c>
       <c r="D83" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
         <v>179</v>
@@ -18055,7 +18055,7 @@
     </row>
     <row r="84" spans="1:20">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B84" t="s">
         <v>134</v>
@@ -18096,7 +18096,7 @@
     </row>
     <row r="85" spans="1:20">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B85" t="s">
         <v>134</v>
@@ -18155,7 +18155,7 @@
     </row>
     <row r="86" spans="1:20">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B86" t="s">
         <v>134</v>
@@ -18164,10 +18164,10 @@
         <v>155</v>
       </c>
       <c r="D86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
         <v>182</v>
@@ -18214,7 +18214,7 @@
     </row>
     <row r="87" spans="1:20">
       <c r="A87" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B87" t="s">
         <v>134</v>
@@ -18223,10 +18223,10 @@
         <v>155</v>
       </c>
       <c r="D87" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F87" t="s">
         <v>182</v>
@@ -18273,7 +18273,7 @@
     </row>
     <row r="88" spans="1:20">
       <c r="A88" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B88" t="s">
         <v>133</v>
@@ -18282,10 +18282,10 @@
         <v>155</v>
       </c>
       <c r="D88" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
         <v>182</v>
@@ -18332,7 +18332,7 @@
     </row>
     <row r="89" spans="1:20">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B89" t="s">
         <v>134</v>
@@ -18341,10 +18341,10 @@
         <v>155</v>
       </c>
       <c r="D89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s">
         <v>183</v>
@@ -18391,7 +18391,7 @@
     </row>
     <row r="90" spans="1:20">
       <c r="A90" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B90" t="s">
         <v>133</v>
@@ -18400,10 +18400,10 @@
         <v>155</v>
       </c>
       <c r="D90" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
         <v>183</v>
@@ -18450,7 +18450,7 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B91" t="s">
         <v>134</v>
@@ -18459,10 +18459,10 @@
         <v>155</v>
       </c>
       <c r="D91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
         <v>183</v>
@@ -18509,7 +18509,7 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B92" t="s">
         <v>134</v>
@@ -18518,10 +18518,10 @@
         <v>155</v>
       </c>
       <c r="D92" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E92" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
         <v>185</v>
@@ -22454,10 +22454,10 @@
         <v>161</v>
       </c>
       <c r="D164" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E164" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F164" t="s">
         <v>181</v>
@@ -22513,10 +22513,10 @@
         <v>161</v>
       </c>
       <c r="D165" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E165" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F165" t="s">
         <v>182</v>
@@ -23693,10 +23693,10 @@
         <v>163</v>
       </c>
       <c r="D185" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E185" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F185" t="s">
         <v>185</v>
@@ -23755,10 +23755,10 @@
         <v>163</v>
       </c>
       <c r="D186" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E186" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F186" t="s">
         <v>185</v>
@@ -23814,10 +23814,10 @@
         <v>163</v>
       </c>
       <c r="D187" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E187" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F187" t="s">
         <v>179</v>
@@ -23873,10 +23873,10 @@
         <v>163</v>
       </c>
       <c r="D188" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E188" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F188" t="s">
         <v>179</v>
@@ -23932,10 +23932,10 @@
         <v>163</v>
       </c>
       <c r="D189" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E189" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F189" t="s">
         <v>180</v>
@@ -24050,10 +24050,10 @@
         <v>163</v>
       </c>
       <c r="D191" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E191" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F191" t="s">
         <v>180</v>
@@ -24109,10 +24109,10 @@
         <v>163</v>
       </c>
       <c r="D192" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E192" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F192" t="s">
         <v>184</v>
@@ -24227,10 +24227,10 @@
         <v>163</v>
       </c>
       <c r="D194" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E194" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F194" t="s">
         <v>183</v>
@@ -24286,10 +24286,10 @@
         <v>163</v>
       </c>
       <c r="D195" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E195" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F195" t="s">
         <v>185</v>
@@ -24404,10 +24404,10 @@
         <v>163</v>
       </c>
       <c r="D197" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E197" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F197" t="s">
         <v>185</v>
@@ -24463,10 +24463,10 @@
         <v>163</v>
       </c>
       <c r="D198" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E198" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F198" t="s">
         <v>179</v>
@@ -24522,10 +24522,10 @@
         <v>163</v>
       </c>
       <c r="D199" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E199" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F199" t="s">
         <v>179</v>
@@ -24581,10 +24581,10 @@
         <v>163</v>
       </c>
       <c r="D200" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E200" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F200" t="s">
         <v>180</v>
@@ -24699,10 +24699,10 @@
         <v>163</v>
       </c>
       <c r="D202" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E202" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F202" t="s">
         <v>180</v>
@@ -24758,10 +24758,10 @@
         <v>163</v>
       </c>
       <c r="D203" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E203" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F203" t="s">
         <v>184</v>
@@ -27506,10 +27506,10 @@
         <v>167</v>
       </c>
       <c r="D251" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E251" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F251" t="s">
         <v>184</v>
@@ -27565,10 +27565,10 @@
         <v>167</v>
       </c>
       <c r="D252" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E252" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F252" t="s">
         <v>181</v>
@@ -27860,10 +27860,10 @@
         <v>168</v>
       </c>
       <c r="D257" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E257" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F257" t="s">
         <v>180</v>
@@ -27919,10 +27919,10 @@
         <v>168</v>
       </c>
       <c r="D258" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E258" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F258" t="s">
         <v>184</v>
@@ -27978,10 +27978,10 @@
         <v>168</v>
       </c>
       <c r="D259" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E259" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F259" t="s">
         <v>184</v>
@@ -28037,10 +28037,10 @@
         <v>168</v>
       </c>
       <c r="D260" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E260" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F260" t="s">
         <v>181</v>
@@ -28096,10 +28096,10 @@
         <v>168</v>
       </c>
       <c r="D261" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E261" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F261" t="s">
         <v>181</v>
@@ -28155,10 +28155,10 @@
         <v>168</v>
       </c>
       <c r="D262" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E262" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F262" t="s">
         <v>182</v>
@@ -28214,10 +28214,10 @@
         <v>168</v>
       </c>
       <c r="D263" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E263" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F263" t="s">
         <v>182</v>
@@ -28273,10 +28273,10 @@
         <v>168</v>
       </c>
       <c r="D264" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E264" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F264" t="s">
         <v>183</v>
@@ -28332,10 +28332,10 @@
         <v>168</v>
       </c>
       <c r="D265" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E265" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F265" t="s">
         <v>183</v>
@@ -28391,10 +28391,10 @@
         <v>168</v>
       </c>
       <c r="D266" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E266" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F266" t="s">
         <v>179</v>
@@ -28450,10 +28450,10 @@
         <v>168</v>
       </c>
       <c r="D267" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E267" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F267" t="s">
         <v>180</v>
@@ -28509,10 +28509,10 @@
         <v>168</v>
       </c>
       <c r="D268" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E268" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F268" t="s">
         <v>180</v>
@@ -28568,10 +28568,10 @@
         <v>168</v>
       </c>
       <c r="D269" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E269" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F269" t="s">
         <v>184</v>
@@ -28627,10 +28627,10 @@
         <v>168</v>
       </c>
       <c r="D270" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E270" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F270" t="s">
         <v>184</v>
@@ -28686,10 +28686,10 @@
         <v>168</v>
       </c>
       <c r="D271" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E271" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F271" t="s">
         <v>184</v>
@@ -28745,10 +28745,10 @@
         <v>168</v>
       </c>
       <c r="D272" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E272" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F272" t="s">
         <v>181</v>
@@ -28804,10 +28804,10 @@
         <v>168</v>
       </c>
       <c r="D273" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E273" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F273" t="s">
         <v>181</v>
@@ -28863,10 +28863,10 @@
         <v>168</v>
       </c>
       <c r="D274" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E274" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F274" t="s">
         <v>181</v>
@@ -28922,10 +28922,10 @@
         <v>168</v>
       </c>
       <c r="D275" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E275" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F275" t="s">
         <v>182</v>
@@ -28981,10 +28981,10 @@
         <v>168</v>
       </c>
       <c r="D276" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E276" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F276" t="s">
         <v>183</v>
@@ -29040,10 +29040,10 @@
         <v>168</v>
       </c>
       <c r="D277" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E277" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F277" t="s">
         <v>185</v>
@@ -29099,10 +29099,10 @@
         <v>168</v>
       </c>
       <c r="D278" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E278" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F278" t="s">
         <v>185</v>
@@ -29158,10 +29158,10 @@
         <v>168</v>
       </c>
       <c r="D279" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E279" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F279" t="s">
         <v>185</v>
